--- a/lab_30min.xlsx
+++ b/lab_30min.xlsx
@@ -1603,7 +1603,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
